--- a/src/test/resources/TestDriver/TestSBO/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="81">
   <si>
     <t xml:space="preserve">Steps</t>
   </si>
@@ -168,10 +168,10 @@
     <t xml:space="preserve">ETL</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-01-30T18:30:00.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-30T18:30:00.000Z</t>
+    <t xml:space="preserve">2022-01-31T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-31T18:30:00.000Z</t>
   </si>
   <si>
     <t xml:space="preserve">SPORTING GOODS AND OUTDOORS</t>
@@ -180,13 +180,13 @@
     <t xml:space="preserve">ACTUAL_360</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-02-27T18:30:00.000Z</t>
+    <t xml:space="preserve">2024-02-28T18:30:00.000Z</t>
   </si>
   <si>
     <t xml:space="preserve">CURRENT</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-01-30T18:30:00.000Z</t>
+    <t xml:space="preserve">2024-01-31T18:30:00.000Z</t>
   </si>
   <si>
     <t xml:space="preserve">TransactionActivity</t>
@@ -723,8 +723,8 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -944,13 +944,12 @@
         <v>20</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -962,1215 +961,1166 @@
       <c r="E2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="0"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>20220131</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>20220131</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="H3" s="0"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>20220131</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>20220131</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H4" s="0"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>20220201</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>20220201</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>27.7778</v>
       </c>
-      <c r="H5" s="0"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>20220202</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>20220202</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>27.7778</v>
       </c>
-      <c r="H6" s="0"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>-183.3334</v>
       </c>
-      <c r="H7" s="0"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>-16.6666</v>
       </c>
-      <c r="H8" s="0"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="H9" s="0"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>27.7778</v>
       </c>
-      <c r="H10" s="0"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>20220204</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>20220204</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="0" t="n">
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>27.7731</v>
       </c>
-      <c r="H11" s="0"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>-55.5462</v>
       </c>
-      <c r="H12" s="0"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <v>-219.4538</v>
       </c>
-      <c r="H13" s="0"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="H14" s="0"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>27.7731</v>
       </c>
-      <c r="H15" s="0"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>-27.7122</v>
       </c>
-      <c r="H16" s="0"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>-322.2878</v>
       </c>
-      <c r="H17" s="0"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="H18" s="0"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="0" t="n">
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <v>27.7122</v>
       </c>
-      <c r="H19" s="0"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>20220207</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>20220207</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">D19</f>
         <v>1</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>27.6227</v>
       </c>
-      <c r="H20" s="0"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20220208</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>20220208</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">D20</f>
         <v>1</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="0" t="n">
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>27.6227</v>
       </c>
-      <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B22" s="0" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">D21</f>
         <v>1</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>183.3334</v>
       </c>
-      <c r="H22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="A23" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">D22</f>
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="F23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>16.6666</v>
       </c>
-      <c r="H23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B24" s="0" t="n">
+      <c r="A24" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">D23</f>
         <v>1</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>-200</v>
       </c>
-      <c r="H24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B25" s="0" t="n">
+      <c r="A25" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B25" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">D24</f>
         <v>1</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="H25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B26" s="0" t="n">
+      <c r="A26" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B26" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">D25</f>
         <v>1</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="0" t="n">
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>27.7778</v>
       </c>
-      <c r="H26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B27" s="0" t="n">
+      <c r="A27" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>20220203</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">D26</f>
         <v>1</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>-27.7778</v>
       </c>
-      <c r="H27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B28" s="0" t="n">
+      <c r="A28" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B28" s="1" t="n">
         <v>20220204</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">D27</f>
         <v>1</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="0" t="n">
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>-27.7731</v>
       </c>
-      <c r="H28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B29" s="0" t="n">
+      <c r="A29" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">D28</f>
         <v>1</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="0" t="n">
+      <c r="F29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="1" t="n">
         <v>-238.889</v>
       </c>
-      <c r="H29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B30" s="0" t="n">
+      <c r="A30" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B30" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="1" t="n">
         <f aca="false">D29</f>
         <v>1</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="0" t="n">
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="1" t="n">
         <v>55.5462</v>
       </c>
-      <c r="H30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B31" s="0" t="n">
+      <c r="A31" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B31" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="1" t="n">
         <f aca="false">D30</f>
         <v>1</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="0" t="n">
+      <c r="F31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="1" t="n">
         <v>-36.111</v>
       </c>
-      <c r="H31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B32" s="0" t="n">
+      <c r="A32" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B32" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="1" t="n">
         <f aca="false">D31</f>
         <v>1</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="0" t="n">
+      <c r="F32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="1" t="n">
         <v>219.4538</v>
       </c>
-      <c r="H32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B33" s="0" t="n">
+      <c r="A33" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B33" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D33" s="1" t="n">
         <f aca="false">D32</f>
         <v>1</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="0" t="n">
+      <c r="F33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="H33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B34" s="0" t="n">
+      <c r="A34" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B34" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">D33</f>
         <v>1</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="0" t="n">
+      <c r="F34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="1" t="n">
         <v>-275</v>
       </c>
-      <c r="H34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B35" s="0" t="n">
+      <c r="A35" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B35" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="1" t="n">
         <f aca="false">D34</f>
         <v>1</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="0" t="n">
+      <c r="F35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="1" t="n">
         <v>55.5556</v>
       </c>
-      <c r="H35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B36" s="0" t="n">
+      <c r="A36" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B36" s="1" t="n">
         <v>20220205</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="1" t="n">
         <f aca="false">D35</f>
         <v>1</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="0" t="n">
+      <c r="F36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="1" t="n">
         <v>-27.7731</v>
       </c>
-      <c r="H36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B37" s="0" t="n">
+      <c r="A37" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B37" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D37" s="1" t="n">
         <f aca="false">D36</f>
         <v>1</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="0" t="n">
+      <c r="F37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="1" t="n">
         <v>-27.7677</v>
       </c>
-      <c r="H37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B38" s="0" t="n">
+      <c r="A38" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B38" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="1" t="n">
         <f aca="false">D37</f>
         <v>1</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="0" t="n">
+      <c r="F38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="1" t="n">
         <v>27.7122</v>
       </c>
-      <c r="H38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B39" s="0" t="n">
+      <c r="A39" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B39" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="1" t="n">
         <f aca="false">D38</f>
         <v>1</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="0" t="n">
+      <c r="F39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>-322.2323</v>
       </c>
-      <c r="H39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B40" s="0" t="n">
+      <c r="A40" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B40" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="1" t="n">
         <f aca="false">D39</f>
         <v>1</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="0" t="n">
+      <c r="F40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="1" t="n">
         <v>322.2878</v>
       </c>
-      <c r="H40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B41" s="0" t="n">
+      <c r="A41" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B41" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="1" t="n">
         <f aca="false">D40</f>
         <v>1</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="0" t="n">
+      <c r="F41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="H41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B42" s="0" t="n">
+      <c r="A42" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B42" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D42" s="1" t="n">
         <f aca="false">D41</f>
         <v>1</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="0" t="n">
+      <c r="F42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="1" t="n">
         <v>-350</v>
       </c>
-      <c r="H42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B43" s="0" t="n">
+      <c r="A43" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B43" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="1" t="n">
         <f aca="false">D42</f>
         <v>1</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="0" t="n">
+      <c r="F43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1" t="n">
         <v>27.7677</v>
       </c>
-      <c r="H43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B44" s="0" t="n">
+      <c r="A44" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B44" s="1" t="n">
         <v>20220206</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="1" t="n">
         <f aca="false">D43</f>
         <v>1</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="0" t="n">
+      <c r="F44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="1" t="n">
         <v>-27.7122</v>
       </c>
-      <c r="H44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B45" s="0" t="n">
+      <c r="A45" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B45" s="1" t="n">
         <v>20220207</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="1" t="n">
         <f aca="false">D44</f>
         <v>1</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="0" t="n">
+      <c r="F45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="1" t="n">
         <v>-27.6227</v>
       </c>
-      <c r="H45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B46" s="0" t="n">
+      <c r="A46" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B46" s="1" t="n">
         <v>20220208</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D46" s="1" t="n">
         <f aca="false">D45</f>
         <v>1</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="0" t="n">
+      <c r="F46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="1" t="n">
         <v>-27.6227</v>
       </c>
-      <c r="H46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="A47" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D47" s="1" t="n">
         <f aca="false">D46</f>
         <v>1</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="0" t="n">
+      <c r="F47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="1" t="n">
         <v>-83.0346</v>
       </c>
-      <c r="H47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="A48" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D48" s="1" t="n">
         <f aca="false">D47</f>
         <v>1</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="0" t="n">
+      <c r="F48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="1" t="n">
         <v>-16.9654</v>
       </c>
-      <c r="H48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="A49" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D49" s="1" t="n">
         <f aca="false">D48</f>
         <v>1</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="0" t="n">
+      <c r="F49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="A50" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D50" s="1" t="n">
         <f aca="false">D49</f>
         <v>1</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="0" t="n">
+      <c r="F50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="1" t="n">
         <v>83.0346</v>
       </c>
-      <c r="H50" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2240,522 +2190,522 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>20220201</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>27.7778</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>127.7778</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>20220201</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>20220202</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>127.7778</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>27.7778</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>155.5556</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>20220202</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>20220203</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>155.5556</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>-155.5556</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>20220203</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="E10" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>-16.6666</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>99983.3334</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>20220204</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
+      <c r="E11" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>27.7731</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>27.7731</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>20220204</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F12" s="0" t="n">
+      <c r="E12" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>99983.3334</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>99983.3334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>20220205</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F13" s="0" t="n">
+      <c r="E13" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>27.7731</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>-27.7731</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>20220205</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="E14" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>99983.3334</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>-219.4538</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>99763.8796</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>20220206</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
+      <c r="E15" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>20220206</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="E16" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>99763.8796</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>-322.2878</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>99441.5918</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>20220207</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="E17" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>27.6227</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>27.6227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>20220207</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <v>99441.5918</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>99441.5918</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>20220208</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="E19" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>27.6227</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>27.6227</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>55.2454</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>20220208</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F20" s="0" t="n">
+      <c r="E20" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>99441.5918</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>99441.5918</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20220209</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F21" s="0" t="n">
+      <c r="E21" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>55.2454</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>-55.2454</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>20220209</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="F22" s="0" t="n">
+      <c r="E22" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>99441.5918</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>183.0995</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>99624.6913</v>
       </c>
     </row>
@@ -2775,10 +2725,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2790,7 +2740,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,527 +2772,464 @@
       <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>20220131</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="0" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="F5" s="1" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>127.7778</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>202201</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="H4" s="0" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>127.7778</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>155.5556</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>20220201</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>27.7778</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>127.7778</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>127.7778</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>20220201</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>155.5556</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>-155.5556</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>20220202</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="F10" s="1" t="n">
+        <v>-16.6666</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>127.7778</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>27.7778</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>155.5556</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>155.5556</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>20220202</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>27.7731</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>20220203</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>155.5556</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>-155.5556</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>20220203</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>-27.7731</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>-16.6666</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>99983.3334</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>20220204</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="F14" s="1" t="n">
+        <v>-219.4538</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>99763.8796</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>27.7731</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>27.7731</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>27.7731</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>20220204</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>20220205</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>99763.8796</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-322.2878</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>27.7731</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>-27.7731</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>20220205</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>27.6227</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>-219.4538</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>99763.8796</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>99763.8796</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>20220206</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>20220206</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>55.2454</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>99763.8796</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>-322.2878</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>99441.5918</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>99441.5918</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>20220207</v>
-      </c>
-      <c r="B17" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>20220207</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>55.2454</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-55.2454</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>99441.5918</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>20220208</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>55.2454</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>55.2454</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>20220208</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>55.2454</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>-55.2454</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>183.0995</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>99624.6913</v>
-      </c>
-      <c r="H22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>99624.6913</v>
       </c>
     </row>
@@ -3363,16 +3249,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="33.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,467 +3289,404 @@
       <c r="F2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>20220131</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G3" s="0" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="E5" s="1" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>127.7778</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>202201</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="C6" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="G4" s="0" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>127.7778</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>155.5556</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>20220201</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>27.7778</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>127.7778</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>127.7778</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>20220201</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="C9" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>155.5556</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>-155.5556</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C10" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>20220202</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="E10" s="1" t="n">
+        <v>-16.6666</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>127.7778</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>27.7778</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>155.5556</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>155.5556</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>20220202</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="C11" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>27.7731</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>20220203</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="C12" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>155.5556</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>-155.5556</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>20220203</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="C13" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-27.7731</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>-16.6666</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="C14" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>99983.3334</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>20220204</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="E14" s="1" t="n">
+        <v>-219.4538</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>99763.8796</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>27.7731</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>27.7731</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>27.7731</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>20220204</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="C15" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>20220205</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="C16" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>99763.8796</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>-322.2878</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>27.7731</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>-27.7731</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>20220205</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="C17" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>27.6227</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>99983.3334</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>-219.4538</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>99763.8796</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>99763.8796</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>20220206</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="C18" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>20220206</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="C19" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>55.2454</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>99763.8796</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>-322.2878</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="C20" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>99441.5918</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>99441.5918</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>20220207</v>
-      </c>
-      <c r="B17" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>20220207</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="C21" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>55.2454</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-55.2454</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="C22" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>99441.5918</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>20220208</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>27.6227</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>55.2454</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>55.2454</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>20220208</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>55.2454</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>-55.2454</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>20220209</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>202202</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>99441.5918</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>183.0995</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>99624.6913</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>99624.6913</v>
       </c>
     </row>

--- a/src/test/resources/TestDriver/TestSBO/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\SBO\All_Trigger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0200B0-6CAA-4DA1-B306-6796C0F02AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6535FF96-B60B-4235-87EF-85440DD3085D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723D0F33-3AFA-4EB5-924F-824991D7FA31}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1495,7 +1495,7 @@
         <v>76</v>
       </c>
       <c r="G7" s="8">
-        <v>-266.66669999999999</v>
+        <v>-266.66660000000002</v>
       </c>
       <c r="H7" s="7">
         <v>202202</v>
@@ -1527,7 +1527,7 @@
         <v>76</v>
       </c>
       <c r="G8" s="8">
-        <v>-43.333300000000001</v>
+        <v>-43.333399999999997</v>
       </c>
       <c r="H8" s="7">
         <v>202202</v>
@@ -3236,11 +3236,11 @@
       </c>
       <c r="E11" s="7">
         <f>O_TransactionActivity2!G7+O_TransactionActivity2!G10</f>
-        <v>-233.34299999999999</v>
+        <v>-233.34290000000001</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>33.323600000000027</v>
+        <v>33.323700000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3282,11 +3282,11 @@
       </c>
       <c r="E13" s="7">
         <f>O_TransactionActivity2!G8</f>
-        <v>-43.333300000000001</v>
+        <v>-43.333399999999997</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>149956.6667</v>
+        <v>149956.6666</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="D14" s="7">
         <f t="shared" si="1"/>
-        <v>33.323600000000027</v>
+        <v>33.323700000000002</v>
       </c>
       <c r="E14" s="7">
         <f>O_TransactionActivity2!G11</f>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>66.64730000000003</v>
+        <v>66.647400000000005</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3347,14 +3347,14 @@
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>149956.6667</v>
+        <v>149956.6666</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>149956.6667</v>
+        <v>149956.6666</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="D17" s="7">
         <f t="shared" si="1"/>
-        <v>66.64730000000003</v>
+        <v>66.647400000000005</v>
       </c>
       <c r="E17" s="7">
         <f>O_TransactionActivity2!G12</f>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>116.63290000000003</v>
+        <v>116.63300000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3415,14 +3415,14 @@
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
-        <v>149956.6667</v>
+        <v>149956.6666</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>149956.6667</v>
+        <v>149956.6666</v>
       </c>
     </row>
   </sheetData>
@@ -4091,11 +4091,11 @@
       </c>
       <c r="D11" s="9">
         <f>O_Instrument!E11+O_Instrument2!E11+O_Instrument3!E11</f>
-        <v>-672.25189999999998</v>
+        <v>-672.2518</v>
       </c>
       <c r="E11" s="9">
         <f>O_Instrument!F11+O_Instrument2!F11+O_Instrument3!F11</f>
-        <v>72.192500000000081</v>
+        <v>72.192600000000056</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4131,11 +4131,11 @@
       </c>
       <c r="D13" s="9">
         <f>O_Instrument!E13+O_Instrument2!E13+O_Instrument3!E13</f>
-        <v>-185.55549999999999</v>
+        <v>-185.5556</v>
       </c>
       <c r="E13" s="9">
         <f>O_Instrument!F13+O_Instrument2!F13+O_Instrument3!F13</f>
-        <v>449814.44449999998</v>
+        <v>449814.44440000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C14" s="9">
         <f>O_Instrument!D14+O_Instrument2!D14+O_Instrument3!D14</f>
-        <v>72.192500000000081</v>
+        <v>72.192600000000056</v>
       </c>
       <c r="D14" s="9">
         <f>O_Instrument!E14+O_Instrument2!E14+O_Instrument3!E14</f>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E14" s="9">
         <f>O_Instrument!F14+O_Instrument2!F14+O_Instrument3!F14</f>
-        <v>144.38510000000008</v>
+        <v>144.38520000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="C16" s="9">
         <f>O_Instrument!D16+O_Instrument2!D16+O_Instrument3!D16</f>
-        <v>449814.44449999998</v>
+        <v>449814.44440000004</v>
       </c>
       <c r="D16" s="9">
         <f>O_Instrument!E16+O_Instrument2!E16+O_Instrument3!E16</f>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="E16" s="9">
         <f>O_Instrument!F16+O_Instrument2!F16+O_Instrument3!F16</f>
-        <v>449814.44449999998</v>
+        <v>449814.44440000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="C17" s="9">
         <f>O_Instrument!D17+O_Instrument2!D17+O_Instrument3!D17</f>
-        <v>144.38510000000008</v>
+        <v>144.38520000000005</v>
       </c>
       <c r="D17" s="9">
         <f>O_Instrument!E17+O_Instrument2!E17+O_Instrument3!E17</f>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="E17" s="9">
         <f>O_Instrument!F17+O_Instrument2!F17+O_Instrument3!F17</f>
-        <v>280.4396000000001</v>
+        <v>280.43970000000007</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="C19" s="9">
         <f>O_Instrument!D19+O_Instrument2!D19+O_Instrument3!D19</f>
-        <v>449814.44449999998</v>
+        <v>449814.44440000004</v>
       </c>
       <c r="D19" s="9">
         <f>O_Instrument!E19+O_Instrument2!E19+O_Instrument3!E19</f>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="E19" s="9">
         <f>O_Instrument!F19+O_Instrument2!F19+O_Instrument3!F19</f>
-        <v>449814.44449999998</v>
+        <v>449814.44440000004</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDriver/TestSBO/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\SBO\All_Trigger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6535FF96-B60B-4235-87EF-85440DD3085D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73019EE5-F0E1-467F-A556-69EA4142813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="O_Metric" sheetId="5" r:id="rId9"/>
     <sheet name="xxInstrumentAttribute" sheetId="6" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -62,9 +62,6 @@
     <t>FILE_UPLOAD</t>
   </si>
   <si>
-    <t>ReferenceData/RefData_SBO_EVENTS.xlsx</t>
-  </si>
-  <si>
     <t>EVENT_CONFIGURATION</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>MODEL_UPLOAD</t>
   </si>
   <si>
-    <t>Model/SBO_MODEL_EVENTS_All_Trigger.xlsx</t>
-  </si>
-  <si>
     <t>MODEL_CONFIGURATION</t>
   </si>
   <si>
@@ -89,21 +83,12 @@
     <t>ACTIVITY_UPLOAD</t>
   </si>
   <si>
-    <t>TestSBO/ActivityData_JAN1.xlsx</t>
-  </si>
-  <si>
     <t>MODEL_EXECUTION</t>
   </si>
   <si>
     <t>EXECUTION</t>
   </si>
   <si>
-    <t>TestSBO/ActivityData_FEB3.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO/ActivityData_FEB5.xlsx</t>
-  </si>
-  <si>
     <t>TransactionActivity</t>
   </si>
   <si>
@@ -282,6 +267,21 @@
   </si>
   <si>
     <t>LOAN3</t>
+  </si>
+  <si>
+    <t>TestSBO/ReferenceData/RefData_SBO_EVENTS.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO/Model/SBO_MODEL_EVENTS_All_Trigger.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO/ActivityData/ActivityData_JAN1.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO/ActivityData/ActivityData_FEB3.xlsx</t>
+  </si>
+  <si>
+    <t>TestSBO/ActivityData/ActivityData_FEB5.xlsx</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -607,59 +607,59 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>44592</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>44593</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>44594</v>
@@ -689,21 +689,21 @@
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>44595</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <v>44596</v>
@@ -722,21 +722,21 @@
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>44597</v>
@@ -781,75 +781,75 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -860,37 +860,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1">
         <v>202201</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -921,43 +921,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G3" s="8">
         <v>100</v>
@@ -1000,16 +1000,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G4" s="8">
         <v>100000</v>
@@ -1032,16 +1032,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>20220201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G5" s="8">
         <v>27.777799999999999</v>
@@ -1064,16 +1064,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>20220202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G6" s="8">
         <v>27.777799999999999</v>
@@ -1096,16 +1096,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7">
         <v>20220203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G7" s="8">
         <v>-155.5556</v>
@@ -1128,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
         <v>20220203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G8" s="8">
         <v>-54.444400000000002</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7">
         <v>20220203</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G9" s="8">
         <v>210</v>
@@ -1192,16 +1192,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7">
         <v>20220203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G10" s="8">
         <v>27.762699999999999</v>
@@ -1224,16 +1224,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
         <v>20220204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G11" s="8">
         <v>27.762699999999999</v>
@@ -1256,16 +1256,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7">
         <v>20220205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G12" s="8">
         <v>41.643999999999998</v>
@@ -1294,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723D0F33-3AFA-4EB5-924F-824991D7FA31}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1308,43 +1308,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1355,16 +1355,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G3" s="8">
         <v>200</v>
@@ -1387,16 +1387,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G4" s="8">
         <v>150000</v>
@@ -1419,16 +1419,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>20220201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G5" s="8">
         <v>33.333300000000001</v>
@@ -1451,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>20220202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G6" s="8">
         <v>33.333300000000001</v>
@@ -1483,16 +1483,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7">
         <v>20220203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G7" s="8">
         <v>-266.66660000000002</v>
@@ -1515,16 +1515,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
         <v>20220203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G8" s="8">
         <v>-43.333399999999997</v>
@@ -1547,16 +1547,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7">
         <v>20220203</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G9" s="8">
         <v>310</v>
@@ -1579,16 +1579,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7">
         <v>20220203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G10" s="8">
         <v>33.323700000000002</v>
@@ -1611,16 +1611,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
         <v>20220204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G11" s="8">
         <v>33.323700000000002</v>
@@ -1643,16 +1643,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7">
         <v>20220205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G12" s="8">
         <v>49.985599999999998</v>
@@ -1695,43 +1695,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1742,16 +1742,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="8">
         <v>300</v>
@@ -1774,16 +1774,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G4" s="8">
         <v>200000</v>
@@ -1806,16 +1806,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>20220201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" s="8">
         <v>11.1111</v>
@@ -1838,16 +1838,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>20220202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G6" s="8">
         <v>11.1111</v>
@@ -1870,16 +1870,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7">
         <v>20220203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G7" s="8">
         <v>-322.22219999999999</v>
@@ -1902,16 +1902,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
         <v>20220203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G8" s="8">
         <v>-87.777799999999999</v>
@@ -1934,16 +1934,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7">
         <v>20220203</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G9" s="8">
         <v>410</v>
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7">
         <v>20220203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G10" s="8">
         <v>11.106199999999999</v>
@@ -1998,16 +1998,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
         <v>20220204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G11" s="8">
         <v>11.106199999999999</v>
@@ -2030,16 +2030,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7">
         <v>20220205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G12" s="8">
         <v>44.424900000000001</v>
@@ -2085,33 +2085,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2122,10 +2122,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8">
         <f>G3</f>
@@ -2194,10 +2194,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E7" s="8">
         <f>F4</f>
@@ -2244,10 +2244,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E19" si="1">G5</f>
@@ -2270,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
@@ -2296,10 +2296,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
@@ -2321,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
@@ -2347,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
@@ -2373,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
@@ -2399,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
@@ -2425,10 +2425,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
@@ -2451,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
@@ -2476,10 +2476,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
@@ -2502,10 +2502,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
@@ -2528,10 +2528,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
@@ -2575,30 +2575,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2606,10 +2606,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>20220201</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7">
         <f>F3</f>
@@ -2673,10 +2673,10 @@
         <v>20220201</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -2695,10 +2695,10 @@
         <v>20220201</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ref="D7:D19" si="1">F4</f>
@@ -2717,10 +2717,10 @@
         <v>20220202</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
@@ -2740,10 +2740,10 @@
         <v>20220202</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
@@ -2763,10 +2763,10 @@
         <v>20220202</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
@@ -2785,10 +2785,10 @@
         <v>20220203</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
@@ -2808,10 +2808,10 @@
         <v>20220203</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
@@ -2831,10 +2831,10 @@
         <v>20220203</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="1"/>
@@ -2854,10 +2854,10 @@
         <v>20220204</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="1"/>
@@ -2877,10 +2877,10 @@
         <v>20220204</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
@@ -2900,10 +2900,10 @@
         <v>20220204</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
@@ -2922,10 +2922,10 @@
         <v>20220205</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="1"/>
@@ -2945,10 +2945,10 @@
         <v>20220205</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
@@ -2968,10 +2968,10 @@
         <v>20220205</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
@@ -3015,30 +3015,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3046,10 +3046,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -3068,10 +3068,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>20220201</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D5" s="7">
         <f>F3</f>
@@ -3113,10 +3113,10 @@
         <v>20220201</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -3135,10 +3135,10 @@
         <v>20220201</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ref="D7:D19" si="1">F4</f>
@@ -3157,10 +3157,10 @@
         <v>20220202</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
@@ -3180,10 +3180,10 @@
         <v>20220202</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
@@ -3203,10 +3203,10 @@
         <v>20220202</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
@@ -3225,10 +3225,10 @@
         <v>20220203</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
@@ -3248,10 +3248,10 @@
         <v>20220203</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
@@ -3271,10 +3271,10 @@
         <v>20220203</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="1"/>
@@ -3294,10 +3294,10 @@
         <v>20220204</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="1"/>
@@ -3317,10 +3317,10 @@
         <v>20220204</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
@@ -3340,10 +3340,10 @@
         <v>20220204</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
@@ -3362,10 +3362,10 @@
         <v>20220205</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="1"/>
@@ -3385,10 +3385,10 @@
         <v>20220205</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
@@ -3408,10 +3408,10 @@
         <v>20220205</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
@@ -3455,30 +3455,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3486,10 +3486,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>20220201</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7">
         <f>F3</f>
@@ -3553,10 +3553,10 @@
         <v>20220201</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -3575,10 +3575,10 @@
         <v>20220201</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ref="D7:D19" si="1">F4</f>
@@ -3597,10 +3597,10 @@
         <v>20220202</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
@@ -3620,10 +3620,10 @@
         <v>20220202</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
@@ -3643,10 +3643,10 @@
         <v>20220202</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
@@ -3665,10 +3665,10 @@
         <v>20220203</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
@@ -3688,10 +3688,10 @@
         <v>20220203</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
@@ -3711,10 +3711,10 @@
         <v>20220203</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="1"/>
@@ -3734,10 +3734,10 @@
         <v>20220204</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="1"/>
@@ -3757,10 +3757,10 @@
         <v>20220204</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
@@ -3780,10 +3780,10 @@
         <v>20220204</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
@@ -3802,10 +3802,10 @@
         <v>20220205</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="1"/>
@@ -3825,10 +3825,10 @@
         <v>20220205</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
@@ -3848,10 +3848,10 @@
         <v>20220205</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="1"/>
@@ -3895,27 +3895,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3923,7 +3923,7 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9">
         <f>O_Instrument!D3+O_Instrument2!D3+O_Instrument3!D3</f>
@@ -3943,7 +3943,7 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9">
         <f>O_Instrument!D4+O_Instrument2!D4+O_Instrument3!D4</f>
@@ -3963,7 +3963,7 @@
         <v>20220201</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="9">
         <f>O_Instrument!D5+O_Instrument2!D5+O_Instrument3!D5</f>
@@ -3983,7 +3983,7 @@
         <v>20220201</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="9">
         <f>O_Instrument!D6+O_Instrument2!D6+O_Instrument3!D6</f>
@@ -4003,7 +4003,7 @@
         <v>20220201</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9">
         <f>O_Instrument!D7+O_Instrument2!D7+O_Instrument3!D7</f>
@@ -4023,7 +4023,7 @@
         <v>20220202</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9">
         <f>O_Instrument!D8+O_Instrument2!D8+O_Instrument3!D8</f>
@@ -4043,7 +4043,7 @@
         <v>20220202</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9">
         <f>O_Instrument!D9+O_Instrument2!D9+O_Instrument3!D9</f>
@@ -4063,7 +4063,7 @@
         <v>20220202</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9">
         <f>O_Instrument!D10+O_Instrument2!D10+O_Instrument3!D10</f>
@@ -4083,7 +4083,7 @@
         <v>20220203</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="9">
         <f>O_Instrument!D11+O_Instrument2!D11+O_Instrument3!D11</f>
@@ -4103,7 +4103,7 @@
         <v>20220203</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="9">
         <f>O_Instrument!D12+O_Instrument2!D12+O_Instrument3!D12</f>
@@ -4123,7 +4123,7 @@
         <v>20220203</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="9">
         <f>O_Instrument!D13+O_Instrument2!D13+O_Instrument3!D13</f>
@@ -4143,7 +4143,7 @@
         <v>20220204</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="9">
         <f>O_Instrument!D14+O_Instrument2!D14+O_Instrument3!D14</f>
@@ -4163,7 +4163,7 @@
         <v>20220204</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="9">
         <f>O_Instrument!D15+O_Instrument2!D15+O_Instrument3!D15</f>
@@ -4183,7 +4183,7 @@
         <v>20220204</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="9">
         <f>O_Instrument!D16+O_Instrument2!D16+O_Instrument3!D16</f>
@@ -4203,7 +4203,7 @@
         <v>20220205</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" s="9">
         <f>O_Instrument!D17+O_Instrument2!D17+O_Instrument3!D17</f>
@@ -4223,7 +4223,7 @@
         <v>20220205</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="9">
         <f>O_Instrument!D18+O_Instrument2!D18+O_Instrument3!D18</f>
@@ -4243,7 +4243,7 @@
         <v>20220205</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9">
         <f>O_Instrument!D19+O_Instrument2!D19+O_Instrument3!D19</f>
